--- a/libapi/src/main/resources/excel/Grade.xlsx
+++ b/libapi/src/main/resources/excel/Grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Thesis\thesisAn\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANG4HC\Documents\GitHub\Thesis\libapi\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE10F22-2754-42E9-B079-7A3C37C1CF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61F017F-9613-4F69-824A-BB05A1F4A744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="1610" windowWidth="14400" windowHeight="7370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,19 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
-  <si>
-    <t>Trường ĐH Quốc Tế - ĐHQG TP.HCM-Trường Đại học Quốc tế</t>
-  </si>
-  <si>
-    <t>Phòng Đào tạo Đại học</t>
-  </si>
-  <si>
-    <t>Tên môn học: Computer Graphics</t>
-  </si>
-  <si>
-    <t>Tên Giảng viên: Lê Duy Tân</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -1187,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1199,380 +1187,518 @@
     <col min="5" max="5" width="10.69140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9"/>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7">
+        <v>100</v>
+      </c>
+      <c r="D2" s="7">
+        <v>92</v>
+      </c>
+      <c r="E2" s="8">
+        <f>ROUND((C2+D2)/2,0)</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>100</v>
+      </c>
+      <c r="D3" s="7">
+        <v>90</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E36" si="0">ROUND((C3+D3)/2,0)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7">
+        <v>100</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7">
+        <v>100</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7">
+        <v>70</v>
+      </c>
+      <c r="D6" s="7">
+        <v>92</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9"/>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7">
+        <v>30</v>
+      </c>
+      <c r="D7" s="7">
+        <v>92</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7">
+        <v>100</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7">
+        <v>70</v>
+      </c>
+      <c r="D10" s="7">
+        <v>92</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
         <v>81</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7">
         <v>100</v>
       </c>
       <c r="D11" s="7">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" s="8">
-        <f>ROUND((C11+D11)/2,0)</f>
-        <v>96</v>
+        <f t="shared" si="0"/>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7">
         <v>100</v>
       </c>
       <c r="D12" s="7">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E12" s="8">
-        <f t="shared" ref="E12:E45" si="0">ROUND((C12+D12)/2,0)</f>
-        <v>95</v>
+        <f t="shared" si="0"/>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C13" s="7">
         <v>100</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D15" s="7">
         <v>92</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D16" s="7">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7">
         <v>100</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E17" s="8">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D19" s="7">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E19" s="8">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C20" s="7">
         <v>100</v>
       </c>
       <c r="D20" s="7">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E20" s="8">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C21" s="7">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D21" s="7">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E21" s="8">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C22" s="7">
         <v>100</v>
       </c>
       <c r="D22" s="7">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C23" s="7">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D23" s="7">
         <v>75</v>
       </c>
       <c r="E23" s="8">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C24" s="7">
         <v>100</v>
       </c>
       <c r="D24" s="7">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E24" s="8">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C25" s="7">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D25" s="7">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C26" s="7">
         <v>100</v>
       </c>
       <c r="D26" s="7">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="E26" s="8">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C27" s="7">
         <v>100</v>
       </c>
       <c r="D27" s="7">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E27" s="8">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C28" s="7">
         <v>100</v>
       </c>
       <c r="D28" s="7">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E28" s="8">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C29" s="7">
         <v>100</v>
@@ -1587,64 +1713,64 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7">
         <v>50</v>
       </c>
       <c r="D30" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E30" s="8">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C31" s="7">
         <v>100</v>
       </c>
       <c r="D31" s="7">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E31" s="8">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C32" s="7">
         <v>100</v>
       </c>
       <c r="D32" s="7">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E32" s="8">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C33" s="7">
         <v>100</v>
@@ -1659,247 +1785,81 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C34" s="7">
         <v>100</v>
       </c>
       <c r="D34" s="7">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="E34" s="8">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C35" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
         <v>0</v>
       </c>
       <c r="E35" s="8">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C36" s="7">
         <v>100</v>
       </c>
       <c r="D36" s="7">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E36" s="8">
         <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="7">
-        <v>100</v>
-      </c>
-      <c r="D37" s="7">
-        <v>97</v>
-      </c>
-      <c r="E37" s="8">
-        <f t="shared" si="0"/>
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="7">
-        <v>100</v>
-      </c>
-      <c r="D38" s="7">
-        <v>85</v>
-      </c>
-      <c r="E38" s="8">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
+      <c r="A38" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="7">
-        <v>50</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0</v>
-      </c>
-      <c r="E39" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
+      <c r="A39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="7">
-        <v>100</v>
-      </c>
-      <c r="D40" s="7">
-        <v>70</v>
-      </c>
-      <c r="E40" s="8">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="7">
-        <v>100</v>
-      </c>
-      <c r="D41" s="7">
-        <v>97</v>
-      </c>
-      <c r="E41" s="8">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="7">
-        <v>100</v>
-      </c>
-      <c r="D42" s="7">
-        <v>90</v>
-      </c>
-      <c r="E42" s="8">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="7">
-        <v>100</v>
-      </c>
-      <c r="D43" s="7">
-        <v>70</v>
-      </c>
-      <c r="E43" s="8">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="A40" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="7">
-        <v>0</v>
-      </c>
-      <c r="D44" s="7">
-        <v>0</v>
-      </c>
-      <c r="E44" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="7">
-        <v>100</v>
-      </c>
-      <c r="D45" s="7">
-        <v>90</v>
-      </c>
-      <c r="E45" s="8">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48" s="9"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49" s="9"/>
+      <c r="B40" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A47:B47"/>
+  <mergeCells count="3">
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/libapi/src/main/resources/excel/Grade.xlsx
+++ b/libapi/src/main/resources/excel/Grade.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANG4HC\Documents\GitHub\Thesis\libapi\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Thesis\libapi\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61F017F-9613-4F69-824A-BB05A1F4A744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BA4D4D-B9FE-422B-9BAC-F307A91A0553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="1610" windowWidth="14400" windowHeight="7370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$36</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Mã SV</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -251,15 +251,6 @@
     <t>ITITIU19060</t>
   </si>
   <si>
-    <t>Số sinh viên  trong danh sách: 35</t>
-  </si>
-  <si>
-    <t>Trưởng bộ môn</t>
-  </si>
-  <si>
-    <t>(Ký và ghi rõ họ tên)</t>
-  </si>
-  <si>
     <t>In-class</t>
   </si>
   <si>
@@ -267,6 +258,15 @@
   </si>
   <si>
     <t>Final</t>
+  </si>
+  <si>
+    <t>Prohibited</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Note</t>
@@ -802,22 +802,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1175,16 +1175,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="32.3828125" customWidth="1"/>
-    <col min="5" max="5" width="10.69140625" style="4"/>
+    <col min="5" max="5" width="10.69140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1192,675 +1192,654 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="7">
-        <v>100</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C2" s="5">
+        <v>100</v>
+      </c>
+      <c r="D2" s="5">
         <v>92</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <f>ROUND((C2+D2)/2,0)</f>
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7">
-        <v>100</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="C3" s="5">
+        <v>100</v>
+      </c>
+      <c r="D3" s="5">
         <v>90</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <f t="shared" ref="E3:E36" si="0">ROUND((C3+D3)/2,0)</f>
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7">
-        <v>100</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="5">
+        <v>100</v>
+      </c>
+      <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7">
-        <v>100</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C5" s="5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="5">
         <v>0</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>70</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>92</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>30</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>92</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7">
-        <v>100</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="5">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>50</v>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>0</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>0</v>
       </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>70</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>92</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="7">
-        <v>100</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="5">
+        <v>100</v>
+      </c>
+      <c r="D11" s="5">
         <v>90</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="7">
-        <v>100</v>
-      </c>
-      <c r="D12" s="7">
-        <v>70</v>
-      </c>
-      <c r="E12" s="8">
-        <f t="shared" si="0"/>
-        <v>85</v>
+      <c r="C12" s="5">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="7">
-        <v>100</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C13" s="5">
+        <v>100</v>
+      </c>
+      <c r="D13" s="5">
         <v>85</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>70</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>75</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="7">
-        <v>100</v>
-      </c>
-      <c r="D15" s="7">
-        <v>92</v>
-      </c>
-      <c r="E15" s="8">
-        <f t="shared" si="0"/>
-        <v>96</v>
+      <c r="C15" s="5">
+        <v>35</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="5">
+        <v>70</v>
+      </c>
+      <c r="D16" s="5">
+        <v>75</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="7">
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="5">
+        <v>20</v>
+      </c>
+      <c r="D17" s="5">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="5">
+        <v>100</v>
+      </c>
+      <c r="D18" s="5">
+        <v>90</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="5">
+        <v>100</v>
+      </c>
+      <c r="D19" s="5">
+        <v>85</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5">
+        <v>100</v>
+      </c>
+      <c r="D20" s="5">
+        <v>85</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="5">
+        <v>50</v>
+      </c>
+      <c r="D21" s="5">
+        <v>65</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="5">
+        <v>100</v>
+      </c>
+      <c r="D22" s="5">
+        <v>90</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="5">
+        <v>100</v>
+      </c>
+      <c r="D23" s="5">
+        <v>75</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="5">
+        <v>100</v>
+      </c>
+      <c r="D24" s="5">
+        <v>90</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="5">
+        <v>100</v>
+      </c>
+      <c r="D25" s="5">
+        <v>97</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="5">
+        <v>100</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="5">
+        <v>100</v>
+      </c>
+      <c r="D27" s="5">
+        <v>92</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="5">
+        <v>100</v>
+      </c>
+      <c r="D28" s="5">
+        <v>97</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="5">
+        <v>100</v>
+      </c>
+      <c r="D29" s="5">
+        <v>85</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="5">
+        <v>50</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="5">
+        <v>100</v>
+      </c>
+      <c r="D31" s="5">
         <v>70</v>
       </c>
-      <c r="D16" s="7">
+      <c r="E31" s="6">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="5">
+        <v>100</v>
+      </c>
+      <c r="D32" s="5">
+        <v>97</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="5">
+        <v>100</v>
+      </c>
+      <c r="D33" s="5">
+        <v>90</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="5">
+        <v>100</v>
+      </c>
+      <c r="D34" s="5">
+        <v>70</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="8">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="7">
-        <v>100</v>
-      </c>
-      <c r="D17" s="7">
-        <v>85</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="7">
-        <v>100</v>
-      </c>
-      <c r="D18" s="7">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="5">
+        <v>100</v>
+      </c>
+      <c r="D36" s="5">
         <v>90</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E36" s="6">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="7">
-        <v>100</v>
-      </c>
-      <c r="D19" s="7">
-        <v>85</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="7">
-        <v>100</v>
-      </c>
-      <c r="D20" s="7">
-        <v>85</v>
-      </c>
-      <c r="E20" s="8">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="7">
-        <v>50</v>
-      </c>
-      <c r="D21" s="7">
-        <v>65</v>
-      </c>
-      <c r="E21" s="8">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="7">
-        <v>100</v>
-      </c>
-      <c r="D22" s="7">
-        <v>90</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="7">
-        <v>100</v>
-      </c>
-      <c r="D23" s="7">
-        <v>75</v>
-      </c>
-      <c r="E23" s="8">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="7">
-        <v>100</v>
-      </c>
-      <c r="D24" s="7">
-        <v>90</v>
-      </c>
-      <c r="E24" s="8">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="7">
-        <v>100</v>
-      </c>
-      <c r="D25" s="7">
-        <v>97</v>
-      </c>
-      <c r="E25" s="8">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="7">
-        <v>100</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="7">
-        <v>100</v>
-      </c>
-      <c r="D27" s="7">
-        <v>92</v>
-      </c>
-      <c r="E27" s="8">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="7">
-        <v>100</v>
-      </c>
-      <c r="D28" s="7">
-        <v>97</v>
-      </c>
-      <c r="E28" s="8">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="7">
-        <v>100</v>
-      </c>
-      <c r="D29" s="7">
-        <v>85</v>
-      </c>
-      <c r="E29" s="8">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="7">
-        <v>50</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="7">
-        <v>100</v>
-      </c>
-      <c r="D31" s="7">
-        <v>70</v>
-      </c>
-      <c r="E31" s="8">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="7">
-        <v>100</v>
-      </c>
-      <c r="D32" s="7">
-        <v>97</v>
-      </c>
-      <c r="E32" s="8">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="7">
-        <v>100</v>
-      </c>
-      <c r="D33" s="7">
-        <v>90</v>
-      </c>
-      <c r="E33" s="8">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="7">
-        <v>100</v>
-      </c>
-      <c r="D34" s="7">
-        <v>70</v>
-      </c>
-      <c r="E34" s="8">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7">
-        <v>0</v>
-      </c>
-      <c r="E35" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="7">
-        <v>100</v>
-      </c>
-      <c r="D36" s="7">
-        <v>90</v>
-      </c>
-      <c r="E36" s="8">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A38:B38"/>
-  </mergeCells>
+  <autoFilter ref="A1:F36" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>